--- a/public/DetailLevel1/template-MoM-1.xlsx
+++ b/public/DetailLevel1/template-MoM-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bagus\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831AA7BD-BA8E-2441-A569-F7D7808F4452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821617B6-A649-46B6-88B3-DB5AA32C50DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>No</t>
   </si>
@@ -59,41 +59,32 @@
     <t>PLANT</t>
   </si>
   <si>
-    <t>OPEN</t>
-  </si>
-  <si>
-    <t>2022-06-01</t>
-  </si>
-  <si>
-    <t>2022-06-02</t>
-  </si>
-  <si>
-    <t>2022-06-03</t>
-  </si>
-  <si>
-    <t>2022-06-04</t>
-  </si>
-  <si>
-    <t>2022-06-05</t>
-  </si>
-  <si>
-    <t>2022-06-06</t>
-  </si>
-  <si>
-    <t>2022-06-07</t>
-  </si>
-  <si>
-    <t>2022-06-08</t>
-  </si>
-  <si>
-    <t>2022-06-09</t>
+    <t xml:space="preserve">2023-07-01                </t>
+  </si>
+  <si>
+    <t>CLOSE</t>
+  </si>
+  <si>
+    <t>2023-07-02</t>
+  </si>
+  <si>
+    <t>2023-07-03</t>
+  </si>
+  <si>
+    <t>2023-07-04</t>
+  </si>
+  <si>
+    <t>2023-07-05</t>
+  </si>
+  <si>
+    <t>2023-07-06</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -106,15 +97,8 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -143,11 +127,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,18 +434,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,165 +462,113 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>8</v>
+      <c r="F7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/public/DetailLevel1/template-MoM-1.xlsx
+++ b/public/DetailLevel1/template-MoM-1.xlsx
@@ -1,39 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\kkb23060\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831AA7BD-BA8E-2441-A569-F7D7808F4452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" forceFullCalc="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>No</t>
   </si>
@@ -53,47 +39,23 @@
     <t>STATUS</t>
   </si>
   <si>
-    <t>Test Point Of Meeting</t>
-  </si>
-  <si>
-    <t>PLANT</t>
+    <t xml:space="preserve">2023-07-01                </t>
   </si>
   <si>
     <t>OPEN</t>
   </si>
   <si>
-    <t>2022-06-01</t>
-  </si>
-  <si>
-    <t>2022-06-02</t>
-  </si>
-  <si>
-    <t>2022-06-03</t>
-  </si>
-  <si>
-    <t>2022-06-04</t>
-  </si>
-  <si>
-    <t>2022-06-05</t>
-  </si>
-  <si>
-    <t>2022-06-06</t>
-  </si>
-  <si>
-    <t>2022-06-07</t>
-  </si>
-  <si>
-    <t>2022-06-08</t>
-  </si>
-  <si>
-    <t>2022-06-09</t>
+    <t>HCGS</t>
+  </si>
+  <si>
+    <t>Perapian kontainer ruang operator dan mekanik untuk istirahat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -104,17 +66,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -143,11 +94,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,19 +400,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,165 +433,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>